--- a/NDLM_Template.xlsx
+++ b/NDLM_Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lcsol\Documents\Python\ENARSI\vEdge_To_cEdge\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{818AD813-FEE0-49F5-B39D-3305A2ADFDF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A082EA3-3018-47E5-BBC9-57BAEEF26BAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{285B8144-BB70-4CF3-909C-154EF83ABF38}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="74">
   <si>
     <t>Activity to be completed for the listed device</t>
   </si>
@@ -426,6 +426,12 @@
   </si>
   <si>
     <t>site-code-sdw-03</t>
+  </si>
+  <si>
+    <t>vedge1-loop</t>
+  </si>
+  <si>
+    <t>vedge2-loop</t>
   </si>
 </sst>
 </file>
@@ -972,8 +978,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D62FD9F4-9AB5-4CAC-894B-B846C73324CC}">
   <dimension ref="A1:V7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1206,7 +1212,9 @@
       <c r="G4" s="15"/>
       <c r="H4" s="15"/>
       <c r="I4" s="15"/>
-      <c r="J4" s="16"/>
+      <c r="J4" s="16" t="s">
+        <v>72</v>
+      </c>
       <c r="K4" s="15"/>
       <c r="L4" s="15"/>
       <c r="M4" s="15"/>
@@ -1244,7 +1252,9 @@
       <c r="G5" s="15"/>
       <c r="H5" s="15"/>
       <c r="I5" s="15"/>
-      <c r="J5" s="16"/>
+      <c r="J5" s="16" t="s">
+        <v>73</v>
+      </c>
       <c r="K5" s="15"/>
       <c r="L5" s="15"/>
       <c r="M5" s="15"/>

--- a/NDLM_Template.xlsx
+++ b/NDLM_Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lcsol\Documents\Python\ENARSI\vEdge_To_cEdge\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{071CFED0-D252-4899-94E0-B6D59F2DA935}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01FC328D-3684-47DB-85D0-D6B083875D0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{1FB2D60F-911D-4AE1-8C0C-99AB15A1ACF8}"/>
   </bookViews>
@@ -174,9 +174,6 @@
     <t>vedge1-loop</t>
   </si>
   <si>
-    <t>DATA NTWK SUPPORT ENTERPRISE</t>
-  </si>
-  <si>
     <t>anthem-noc@kyndryl.com</t>
   </si>
   <si>
@@ -436,6 +433,9 @@
       </rPr>
       <t xml:space="preserve"> that has primary support responsibilities for the device. Used to facilitate ticket routing, notifications, etc. for the device.</t>
     </r>
+  </si>
+  <si>
+    <t>DATA NTWK SUPPORT NOC</t>
   </si>
 </sst>
 </file>
@@ -920,8 +920,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4A4DBE5-F891-45D4-BF74-52D9C3853A2F}">
   <dimension ref="A1:V7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -986,22 +986,22 @@
         <v>8</v>
       </c>
       <c r="M1" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="N1" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="O1" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="P1" s="6" t="s">
         <v>68</v>
-      </c>
-      <c r="N1" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="O1" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="P1" s="6" t="s">
-        <v>69</v>
       </c>
       <c r="Q1" s="6" t="s">
         <v>9</v>
       </c>
       <c r="R1" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="S1" s="6" t="s">
         <v>10</v>
@@ -1013,7 +1013,7 @@
         <v>12</v>
       </c>
       <c r="V1" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
@@ -1156,10 +1156,10 @@
         <v>45</v>
       </c>
       <c r="O4" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="P4" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="P4" s="1" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
@@ -1167,137 +1167,137 @@
         <v>41</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>43</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F5" s="1" t="b">
         <v>0</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="O5" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="P5" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="P5" s="1" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>52</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D6" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>54</v>
       </c>
       <c r="F6" s="1" t="b">
         <v>0</v>
       </c>
       <c r="G6" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H6" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="I6" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="J6" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="L6" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="L6" s="1" t="s">
+      <c r="N6" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="N6" s="1" t="s">
+      <c r="O6" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="R6" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="O6" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="P6" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="R6" s="1" t="s">
+      <c r="S6" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="S6" s="1" t="s">
+      <c r="T6" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="T6" s="1" t="s">
+      <c r="U6" s="1" t="s">
         <v>63</v>
-      </c>
-      <c r="U6" s="1" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F7" s="1" t="b">
         <v>0</v>
       </c>
       <c r="G7" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H7" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="I7" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="I7" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="J7" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L7" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N7" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="N7" s="1" t="s">
+      <c r="O7" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="R7" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="O7" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="P7" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="R7" s="1" t="s">
+      <c r="S7" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="S7" s="1" t="s">
+      <c r="T7" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="T7" s="1" t="s">
+      <c r="U7" s="1" t="s">
         <v>63</v>
-      </c>
-      <c r="U7" s="1" t="s">
-        <v>64</v>
       </c>
     </row>
   </sheetData>
